--- a/count.xlsx
+++ b/count.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>quests</t>
+  </si>
   <si>
     <t>topics</t>
   </si>
@@ -49,10 +52,10 @@
     <t>Tamriel Data</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>+21</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>5898</t>
@@ -125,13 +128,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -736,17 +739,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,150 +1107,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.8108108108108" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.99099099099099" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5045045045045" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.87387387387387" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.24324324324324" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="29.8108108108108" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.36936936936937" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.99099099099099" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5045045045045" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.87387387387387" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.24324324324324" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" spans="2:5">
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="16.6" spans="2:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="3">
+        <v>758</v>
+      </c>
+      <c r="C2" s="4">
         <v>2099</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="4">
         <v>1426</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="4">
         <v>23592</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
         <v>6752</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>6481</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>888</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>241</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>142</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/count.xlsx
+++ b/count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23330" windowHeight="7476"/>
+    <workbookView windowWidth="25920" windowHeight="11367"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>quests</t>
   </si>
@@ -25,28 +25,52 @@
     <t>CELLs</t>
   </si>
   <si>
+    <t>BOOKs</t>
+  </si>
+  <si>
     <t>INFOs</t>
   </si>
   <si>
+    <t>SCPTx</t>
+  </si>
+  <si>
     <t>others</t>
   </si>
   <si>
     <t>Morrowind</t>
   </si>
   <si>
-    <t>13185</t>
+    <t>574+571</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>11314</t>
   </si>
   <si>
     <t>Tribunal</t>
   </si>
   <si>
-    <t>1796</t>
+    <t>49+49</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>1552</t>
   </si>
   <si>
     <t>Bloodmoon</t>
   </si>
   <si>
-    <t>1500</t>
+    <t>44+43</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1302</t>
   </si>
   <si>
     <t>Tamriel Data</t>
@@ -58,10 +82,16 @@
     <t>+21</t>
   </si>
   <si>
+    <t>1488+1358</t>
+  </si>
+  <si>
     <t>5898</t>
   </si>
   <si>
-    <t>19449</t>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>15068</t>
   </si>
   <si>
     <t>Tamriel Rebuilt</t>
@@ -73,10 +103,16 @@
     <t>+3707</t>
   </si>
   <si>
+    <t>1399+1416</t>
+  </si>
+  <si>
     <t>69222</t>
   </si>
   <si>
-    <t>34927</t>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>30349</t>
   </si>
   <si>
     <t>Project Cyrodiil</t>
@@ -88,10 +124,16 @@
     <t>+551</t>
   </si>
   <si>
+    <t>263+280</t>
+  </si>
+  <si>
     <t>12711</t>
   </si>
   <si>
-    <t>4904</t>
+    <t>170</t>
+  </si>
+  <si>
+    <t>4191</t>
   </si>
   <si>
     <t>Skyrim Home Of The Nords</t>
@@ -103,10 +145,16 @@
     <t>+380</t>
   </si>
   <si>
+    <t>175+175</t>
+  </si>
+  <si>
     <t>6548</t>
   </si>
   <si>
-    <t>3114</t>
+    <t>164</t>
+  </si>
+  <si>
+    <t>2600</t>
   </si>
 </sst>
 </file>
@@ -1099,24 +1147,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.8108108108108" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.36936936936937" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.99099099099099" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5045045045045" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.87387387387387" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.24324324324324" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="12.2522522522523" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.87387387387387" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.10810810810811" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.24324324324324" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.6" spans="2:6">
+    <row r="1" s="1" customFormat="1" ht="16.6" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,10 +1182,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>758</v>
@@ -1146,119 +1202,161 @@
       <c r="D2" s="4">
         <v>1426</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
         <v>23592</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
         <v>6752</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
         <v>6481</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>888</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
         <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
